--- a/Nyk/assets/Alien Shapes.xlsx
+++ b/Nyk/assets/Alien Shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\JavaScript\Game\Nyk\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E051E960-58D5-4AA9-A0B5-6BE6A2676948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA8FDF-6DC9-4AFC-858F-39BB3023DE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D95CB183-1229-4A80-848E-DFAC974CAB93}"/>
   </bookViews>
@@ -540,6 +540,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,7 +1848,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2094,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <f>COUNT(J4:J40)</f>
+        <v>37</v>
+      </c>
       <c r="J17" s="1">
         <v>-10</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J18" s="1">
         <v>10</v>
       </c>
@@ -2107,7 +2114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J19" s="1">
         <v>10</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J20" s="1">
         <v>25</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J21" s="1">
         <v>25</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J22" s="1">
         <v>30</v>
       </c>
@@ -2139,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J23" s="1">
         <v>30</v>
       </c>
@@ -2147,7 +2154,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J24" s="1">
         <v>20</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
         <v>20</v>
       </c>
@@ -2163,7 +2170,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J26" s="1">
         <v>25</v>
       </c>
@@ -2171,7 +2178,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
         <v>25</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J28" s="1">
         <v>20</v>
       </c>
@@ -2187,7 +2194,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J29" s="1">
         <v>20</v>
       </c>
@@ -2195,7 +2202,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J30" s="1">
         <v>10</v>
       </c>
@@ -2203,7 +2210,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J31" s="1">
         <v>10</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
       <c r="J32" s="1">
         <v>15</v>
       </c>

--- a/Nyk/assets/Alien Shapes.xlsx
+++ b/Nyk/assets/Alien Shapes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\JavaScript\Game\Nyk\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA8FDF-6DC9-4AFC-858F-39BB3023DE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A436D-2BF2-430F-B179-5A5FA3337763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D95CB183-1229-4A80-848E-DFAC974CAB93}"/>
   </bookViews>
@@ -540,9 +540,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1848,7 +1845,7 @@
   <dimension ref="A2:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -2094,11 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G17" s="1">
-        <f>COUNT(J4:J40)</f>
-        <v>37</v>
-      </c>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J17" s="1">
         <v>-10</v>
       </c>
@@ -2106,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J18" s="1">
         <v>10</v>
       </c>
@@ -2114,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J19" s="1">
         <v>10</v>
       </c>
@@ -2122,7 +2115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J20" s="1">
         <v>25</v>
       </c>
@@ -2130,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J21" s="1">
         <v>25</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J22" s="1">
         <v>30</v>
       </c>
@@ -2146,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J23" s="1">
         <v>30</v>
       </c>
@@ -2154,7 +2147,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J24" s="1">
         <v>20</v>
       </c>
@@ -2162,7 +2155,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
         <v>20</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="26" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J26" s="1">
         <v>25</v>
       </c>
@@ -2178,7 +2171,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J27" s="1">
         <v>25</v>
       </c>
@@ -2186,7 +2179,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="28" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J28" s="1">
         <v>20</v>
       </c>
@@ -2194,7 +2187,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J29" s="1">
         <v>20</v>
       </c>
@@ -2202,7 +2195,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="30" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J30" s="1">
         <v>10</v>
       </c>
@@ -2210,7 +2203,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J31" s="1">
         <v>10</v>
       </c>
@@ -2218,7 +2211,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="32" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J32" s="1">
         <v>15</v>
       </c>

--- a/Nyk/assets/Alien Shapes.xlsx
+++ b/Nyk/assets/Alien Shapes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\JavaScript\Game\Nyk\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A436D-2BF2-430F-B179-5A5FA3337763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E854E2CC-1531-4A09-B6D0-51437D8BE07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D95CB183-1229-4A80-848E-DFAC974CAB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D95CB183-1229-4A80-848E-DFAC974CAB93}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alien 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Alien 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>X</t>
   </si>
@@ -43,6 +44,18 @@
   </si>
   <si>
     <t>Mouth</t>
+  </si>
+  <si>
+    <t>Left Mouth</t>
+  </si>
+  <si>
+    <t>Right Mouth</t>
+  </si>
+  <si>
+    <t>Left Ear</t>
+  </si>
+  <si>
+    <t>Right Ear</t>
   </si>
 </sst>
 </file>
@@ -84,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,7 +218,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$2</c:f>
+              <c:f>'Alien 1'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -237,7 +253,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$49</c:f>
+              <c:f>'Alien 1'!$J$4:$J$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -357,7 +373,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$49</c:f>
+              <c:f>'Alien 1'!$K$4:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -487,7 +503,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>'Alien 1'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,7 +538,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$27</c:f>
+              <c:f>'Alien 1'!$G$4:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -546,7 +562,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$26</c:f>
+              <c:f>'Alien 1'!$H$4:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -580,7 +596,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Alien 1'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -615,7 +631,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:f>'Alien 1'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -639,7 +655,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:f>'Alien 1'!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -673,7 +689,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>'Alien 1'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -708,7 +724,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:f>'Alien 1'!$A$4:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -732,7 +748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>'Alien 1'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -758,6 +774,1106 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E496-4AE6-9A5B-553967F7B5F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="11900607"/>
+        <c:axId val="2090579247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="11900607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090579247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2090579247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11900607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Space</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Invader</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42685133887349952"/>
+          <c:y val="2.569593147751606E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Main</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$S$4:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$T$4:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Eye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$P$4:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$Q$4:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Eye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Mouth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$G$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Mouth</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$G$4:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$H$4:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Ear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$D$4:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 2'!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Ear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$A$4:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 2'!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-38C6-49BC-92BF-5E6D2DF6E1D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -988,7 +2104,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1529,6 +3201,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328C9EFF-C996-488A-A35A-A446EAB39E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1844,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB21CF4-07B2-4858-9606-6AC89020AA04}">
   <dimension ref="A2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -1854,22 +3569,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2294,4 +4009,551 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD5E69D-C00D-4FA4-A07E-9B04ECDEBAF8}">
+  <dimension ref="A2:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-15</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-10</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="M5" s="2">
+        <v>15</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-5</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5</v>
+      </c>
+      <c r="S5" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-20</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>-10</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-15</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-15</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-10</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-20</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S9" s="2">
+        <v>-25</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S10" s="2">
+        <v>-25</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S11" s="2">
+        <v>-20</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="2">
+        <v>-20</v>
+      </c>
+      <c r="T12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S14" s="2">
+        <v>-15</v>
+      </c>
+      <c r="T14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S15" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T15" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S16" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S17" s="2">
+        <v>-5</v>
+      </c>
+      <c r="T17" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S18" s="2">
+        <v>-5</v>
+      </c>
+      <c r="T18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S19" s="2">
+        <v>10</v>
+      </c>
+      <c r="T19" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S20" s="2">
+        <v>10</v>
+      </c>
+      <c r="T20" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S21" s="2">
+        <v>15</v>
+      </c>
+      <c r="T21" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S22" s="2">
+        <v>15</v>
+      </c>
+      <c r="T22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S23" s="2">
+        <v>20</v>
+      </c>
+      <c r="T23" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S24" s="2">
+        <v>20</v>
+      </c>
+      <c r="T24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S25" s="2">
+        <v>25</v>
+      </c>
+      <c r="T25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S26" s="2">
+        <v>25</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S27" s="2">
+        <v>30</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S28" s="2">
+        <v>30</v>
+      </c>
+      <c r="T28" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="29" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S29" s="2">
+        <v>25</v>
+      </c>
+      <c r="T29" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="30" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <v>25</v>
+      </c>
+      <c r="T30" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="31" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S31" s="2">
+        <v>20</v>
+      </c>
+      <c r="T31" s="2">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="32" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S32" s="2">
+        <v>20</v>
+      </c>
+      <c r="T32" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="33" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S33" s="2">
+        <v>15</v>
+      </c>
+      <c r="T33" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="34" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S34" s="2">
+        <v>15</v>
+      </c>
+      <c r="T34" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="35" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S35" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T35" s="2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="36" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S36" s="2">
+        <v>-10</v>
+      </c>
+      <c r="T36" s="2">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Nyk/assets/Alien Shapes.xlsx
+++ b/Nyk/assets/Alien Shapes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\JavaScript\Game\Nyk\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E854E2CC-1531-4A09-B6D0-51437D8BE07D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FE76AB-6C69-4B35-8598-F013B91C361F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{D95CB183-1229-4A80-848E-DFAC974CAB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{D95CB183-1229-4A80-848E-DFAC974CAB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Alien 1" sheetId="1" r:id="rId1"/>
     <sheet name="Alien 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Alien 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>X</t>
   </si>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t>Right Ear</t>
+  </si>
+  <si>
+    <t>Left Square 1</t>
+  </si>
+  <si>
+    <t>Left Square 2</t>
+  </si>
+  <si>
+    <t>Right Square 1</t>
+  </si>
+  <si>
+    <t>Right Square 2</t>
   </si>
 </sst>
 </file>
@@ -97,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2064,6 +2080,1082 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Space</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Invader</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42685133887349952"/>
+          <c:y val="2.569593147751606E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Main</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$S$4:$S$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$T$4:$T$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Eye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$P$4:$P$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$Q$4:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Eye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$N$4:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Square 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$J$4:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$G$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Left Square 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$G$4:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$H$4:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$D$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Square 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$D$4:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Alien 3'!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Right Square 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$A$4:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Alien 3'!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7649-45C9-8BDB-2858F1F5927F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="11900607"/>
+        <c:axId val="2090579247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="11900607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2090579247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2090579247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11900607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2144,6 +3236,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2661,6 +3793,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3238,6 +4886,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328C9EFF-C996-488A-A35A-A446EAB39E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062A3B90-C4F7-4E99-8080-FCE0A539EF72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3569,22 +5260,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -4015,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD5E69D-C00D-4FA4-A07E-9B04ECDEBAF8}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -4025,34 +5716,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="S2" s="3" t="s">
+      <c r="Q2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4556,4 +6247,519 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5BEF43-8CCA-4350-B552-0801CCC929D1}">
+  <dimension ref="A2:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="S2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="K4" s="3">
+        <v>-15</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>-10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T4" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>-15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-20</v>
+      </c>
+      <c r="J5" s="3">
+        <v>-20</v>
+      </c>
+      <c r="K5" s="3">
+        <v>-15</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T5" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>-25</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>-20</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-25</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-20</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-20</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>-25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>-20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-25</v>
+      </c>
+      <c r="J7" s="3">
+        <v>-15</v>
+      </c>
+      <c r="K7" s="3">
+        <v>-20</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-5</v>
+      </c>
+      <c r="P7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>-5</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-10</v>
+      </c>
+      <c r="T7" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-20</v>
+      </c>
+      <c r="J8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="K8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="M8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>-10</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>-15</v>
+      </c>
+      <c r="T8" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S9" s="3">
+        <v>-15</v>
+      </c>
+      <c r="T9" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <v>-20</v>
+      </c>
+      <c r="T10" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S11" s="3">
+        <v>-20</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="3">
+        <v>-15</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="3">
+        <v>-15</v>
+      </c>
+      <c r="T13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S14" s="3">
+        <v>-10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S15" s="3">
+        <v>-10</v>
+      </c>
+      <c r="T15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S16" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S17" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T17" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S18" s="3">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S19" s="3">
+        <v>5</v>
+      </c>
+      <c r="T19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S20" s="3">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S21" s="3">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S22" s="3">
+        <v>15</v>
+      </c>
+      <c r="T22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S23" s="3">
+        <v>15</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S24" s="3">
+        <v>20</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S25" s="3">
+        <v>20</v>
+      </c>
+      <c r="T25" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S26" s="3">
+        <v>15</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="27" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S27" s="3">
+        <v>15</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="28" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S28" s="3">
+        <v>10</v>
+      </c>
+      <c r="T28" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="29" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S29" s="3">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="30" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S30" s="3">
+        <v>5</v>
+      </c>
+      <c r="T30" s="3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="31" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S31" s="3">
+        <v>5</v>
+      </c>
+      <c r="T31" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="32" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S32" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>